--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FDA34B-5EA1-484D-8160-5EFC6B2BF35C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49CC33C-ACC8-4956-8B81-A912AAD5C5A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,46 @@
   </si>
   <si>
     <t>수입량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 가격, 출하량 가중평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdp_deflator_house_income_1993_2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1993~2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1985~2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer_price_index_1993_2019 / 과일 세분화자료도 일단 찾아둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange_retail_price_per_kg_h_ 1998_2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange_wholesale_price_per_kg_h_ 1998_2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retail_price_h_1996_2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도감귤출하연합회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,6 +583,57 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -569,57 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F34B-E088-466A-9A92-2A14BCB27A25}">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,37 +987,38 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="30.125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1006,400 +1047,429 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="24"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="24"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="27"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15"/>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22" t="s">
+      <c r="F23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="23"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="29" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="25" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="19"/>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="18"/>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="29" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="18" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="18" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49CC33C-ACC8-4956-8B81-A912AAD5C5A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F5FFE-E473-428F-A656-0F1939612BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,62 @@
   </si>
   <si>
     <t>제주특별자치도감귤출하연합회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요량의 자체가격, 대체재가격, 소득, 기호 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격에 비탄력적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요 - 공급 : 시장균형분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인당 연간소비량 = 자체 실질가격, 대체재 실질가격, 1인당 실질 GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 더미변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자 물가지수로 디플레이트, 가락동시장 평균 도매가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; GDP 대신 가처분소득은 합리적인 것 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따로 정규화를 안해도 되는 OLS로 설명함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연간으로 퉁….치지 말고 기간별로 보면 좋을 것 같기는 한데……… 아니면 노지감귤이 메인이 될 때 팔리는 과일을 대체제로 보고 해봐야 할 듯!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤과 오렌지의 성출하시기가 겹치지 않아서 영향을 오히려 덜 받을 수도 있다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 대체제를 늘려볼까봥 (후보 : 사과, 배, 토마토, 딸기, ….?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 딸기, 석류, 유자, 한라봉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +716,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F34B-E088-466A-9A92-2A14BCB27A25}">
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -999,6 +1058,9 @@
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="27"/>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1009,6 +1071,9 @@
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -1470,6 +1535,62 @@
       <c r="G35" s="17"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FDA34B-5EA1-484D-8160-5EFC6B2BF35C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4958CD-5FAD-41B0-AF14-A637F47B9F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,18 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언제가 좋은지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~6월 강수량 평균?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8~11월 강수량 평균?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더비변수/ 뭐가 있을지? 태풍?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +256,18 @@
   </si>
   <si>
     <t>수입량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~8월 강수량 평균?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~11월 강수량 평균?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10월 언제가 좋은지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -518,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +547,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,57 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F34B-E088-466A-9A92-2A14BCB27A25}">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -951,455 +978,455 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="D23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="23"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F5FFE-E473-428F-A656-0F1939612BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662F1C0-D03B-4523-AFD2-E9706B5113F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +365,18 @@
   </si>
   <si>
     <t>&gt;&gt; 딸기, 석류, 유자, 한라봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;수입수요함수가 필요할 듯 : 총수입수요함수(열대산 과일 수입량) = f(수입가격, 환율, GNP, 더미변수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인당 가공품 소비액 = (가공투입량 * 가공품가격/국내산 과일 투입 계수) / 인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인당 가공식품 소비량 = f(가공품가격, 1인당 GNP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +384,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +415,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -614,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +712,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,7 +744,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F34B-E088-466A-9A92-2A14BCB27A25}">
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1053,11 +1086,11 @@
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
       <c r="G2" t="s">
         <v>75</v>
       </c>
@@ -1066,11 +1099,11 @@
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="G3" t="s">
         <v>74</v>
       </c>
@@ -1079,11 +1112,11 @@
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1455,7 +1488,9 @@
       <c r="E29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1467,7 +1502,9 @@
         <v>46</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
+      <c r="F30" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -1536,6 +1573,11 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>71</v>
@@ -1558,7 +1600,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="25" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1602,4 +1644,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601BE618-1F3A-481C-A7E1-8C085858D9B3}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="37">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662F1C0-D03B-4523-AFD2-E9706B5113F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B65A8-8B70-446A-A1C9-75D02B3BD7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,78 @@
   </si>
   <si>
     <t>1인당 가공식품 소비량 = f(가공품가격, 1인당 GNP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요량 관련 추가 자료 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(국내 대체제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수입과일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자몽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입포도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,6 +789,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,15 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F34B-E088-466A-9A92-2A14BCB27A25}">
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,11 +1158,11 @@
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
       <c r="G2" t="s">
         <v>75</v>
       </c>
@@ -1099,11 +1171,11 @@
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
       <c r="G3" t="s">
         <v>74</v>
       </c>
@@ -1112,11 +1184,11 @@
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1488,7 +1560,7 @@
       <c r="E29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="26" t="s">
         <v>86</v>
       </c>
       <c r="G29" s="9"/>
@@ -1502,7 +1574,7 @@
         <v>46</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="17"/>
@@ -1648,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601BE618-1F3A-481C-A7E1-8C085858D9B3}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I17" sqref="A5:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1659,14 +1731,74 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="37">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="28">
         <v>43851</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B65A8-8B70-446A-A1C9-75D02B3BD7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD7284-5191-476C-8F55-E07AF5B401DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" activeTab="1" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="귤망" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="179">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,75 +380,361 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수요량 관련 추가 자료 조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한라봉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(국내 대체제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(수입과일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루베리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자몽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입포도</t>
+    <t>망했당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 망했나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 주제 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 관련 연구 및 기사 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요량 및 생산량 예측 함수 논문들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 방향성 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요량 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산량 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 연구 바탕으로 변수 추가 및 세분화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애로사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리된 데이터가 없거나 구하기 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부처마다 다루는 데이터가 다르고, 연단위 보고서(pdf)로만 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수기로 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 감귤 관련 데이터 베이스 관리 부족, 개선 시급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입 과일이 늘었다 -&gt; 감귤 생과 소비량이 줄고 있다? (기사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 과일 도매가격 : 판매시장별, 시기별, 종류별, 무게별로 다름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 연구와 동일하게 대표성이 있는 시장, 종류를 선택 (가락시장, 중품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연단위는 기관의 자체 조사 결과를 참고하였으나 신뢰성이 떨어지는 것 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 출하량 데이터도 있으면 가중평균해서 신뢰도높은 가격이 나올 수 있었을 것 같은데 아쉽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도별 데이터 수집 &gt;&gt; 절대적인 데이터량이 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 전처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측치 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 변수선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입개방화 : ffill, 나머지는 0 (개방화 전이라서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지는 dropna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치 없었음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★여기서 실수. 당연히, 의심없이, 회귀분석으로 들어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★여기서 짚고가는 회귀분석의 "전제조건" 네가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중공선성 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairplot, heatmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIF 수치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 높….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFE로 변수 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7개로 줄임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradient boost regressor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomforest regressor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support vector regressor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망한 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 마이너스가 나오는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민 고생 머리를 쥐어뜯다가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음으로 돌아갑시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 회귀분석? 진짜?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수와 독립변수간의 상관관계를 분석해봅시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똥망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 결론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관측치가 너무 적다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 회귀분석을 할 수가 없는 데이터다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 점검도 안하고 모델링해서 고생만 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 연습은 잘 했음 ^^…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 연구를 비판적으로 보지 못한 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터가 충분치 못했던 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 중의 기본을 안하고 넘어갔던 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것이 우리으 패착……… 와우 이럴 줄이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도 감귤출하연합회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국농촌경제연구원 _ 농업관측본부, 농업관측 통계정보시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농수산식품기업지원센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 농식품통계 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공 데이터포털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index(['per_p_fruit_con', 'per_p_imp_con', 'one_house', 'import_ratio_f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'import_ratio_p', 'man_whole_p', 'oran_whole_p'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      dtype='object')</t>
+  </si>
+  <si>
+    <t>선택된 얘들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['per_p_man_con','per_p_fruit_con', 'per_p_imp_con','one_house',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            'import_ratio_f','import_ratio_p','man_whole_p','oran_whole_p',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            'apple_whole_p','pear_whole_p','strb_whole_p','persim_whole_p','banana_whole_p',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            'per_p_income', ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                            'kiwi_whole_p', 'grap_whole_p',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래변수들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train / test set으로 나눴..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridsearchCV 해씀..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패사례 3가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미흡한 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보완할 점 / 보완 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체가 실패하믄 안된댜…….ㅇ_ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤 과잉생산 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +782,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -710,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,8 +1084,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1141,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F34B-E088-466A-9A92-2A14BCB27A25}">
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1158,11 +1453,11 @@
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="G2" t="s">
         <v>75</v>
       </c>
@@ -1171,11 +1466,11 @@
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="G3" t="s">
         <v>74</v>
       </c>
@@ -1184,11 +1479,11 @@
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1720,89 +2015,435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601BE618-1F3A-481C-A7E1-8C085858D9B3}">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="A5:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="28">
-        <v>43851</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L23" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L24" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>102</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L25" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L26" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/감귤프로젝트_요약.xlsx
+++ b/감귤프로젝트_요약.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD7284-5191-476C-8F55-E07AF5B401DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F6E1EA-32CE-4A11-B259-954D21630FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="8595" activeTab="1" xr2:uid="{07D58797-E71E-4413-B336-8558080564D1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t>생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,11 +730,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감귤 과잉생산 기사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문제정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤 과잉생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입과일에 수요는 감소?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2018,7 +2022,7 @@
   <dimension ref="B2:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2031,16 +2035,16 @@
       <c r="B2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
@@ -2049,12 +2053,12 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>178</v>
+      <c r="B5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
